--- a/biology/Zoologie/Colias_meadii/Colias_meadii.xlsx
+++ b/biology/Zoologie/Colias_meadii/Colias_meadii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias meadi est un  insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,16 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colias meadii a été nommé par Edwards en 1971.
-Synonyme : Eurymus meadii ; Dyar, 1903[1].
-Noms vernaculaires
-Colias meadii se nomme Mead's Sulphur  en anglais.
-Sous-espèces
-Colias meadii meadii dans le Colorado, l'Utah, le Montana, le Wyoming et le Nouveau-Mexique.
-Colias meadii elis (Strecker, 1885); en Alberta et Colombie-Britannique.
-Colias meadii lemhiensis (Curtis et Ferris, 1985); dans l'Idaho et le Montana[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias meadii a été nommé par Edwards en 1971.
+Synonyme : Eurymus meadii ; Dyar, 1903.
+</t>
         </is>
       </c>
     </row>
@@ -545,15 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias meadii est un papillon de taille moyenne (son envergure varie de 35 à 51 mm), d'une couleur orange à large bordure noire avec une très petite tache discoïdale au centre de l'aile antérieure et une tache ovale orange pâle au bord costal de l'aile postérieure. Le revers est de couleur jaune avec une partie basale très verdie.
-Les femelles présentent des taches jaunes dans la large bordure foncée[2].
-Chenille
-La chenille est d'une couleur vert jaunâtre, ornée de petits points noirs et d'une ligne latérale jaune pâle[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias meadii se nomme Mead's Sulphur  en anglais.
 </t>
         </is>
       </c>
@@ -579,17 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias meadii vole sur une courte période en plein été, en juillet août, en une seule génération.
-La chenille hiberne au troisième stade, selon certaines sources (ou dans des lieux plus froids) elle hibernerait deux fois car deux années seraient nécessaire pour accomplir son cycle[3],[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille Tripholium dasyphyllum, Tripholium nanum, Tripholium parryi, Astragalus alpinus, Astragalus miser, Oxytropis deflexa, Vicia americana[1],[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias meadii meadii dans le Colorado, l'Utah, le Montana, le Wyoming et le Nouveau-Mexique.
+Colias meadii elis (Strecker, 1885); en Alberta et Colombie-Britannique.
+Colias meadii lemhiensis (Curtis et Ferris, 1985); dans l'Idaho et le Montana.</t>
         </is>
       </c>
     </row>
@@ -614,16 +629,234 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias meadii est un papillon de taille moyenne (son envergure varie de 35 à 51 mm), d'une couleur orange à large bordure noire avec une très petite tache discoïdale au centre de l'aile antérieure et une tache ovale orange pâle au bord costal de l'aile postérieure. Le revers est de couleur jaune avec une partie basale très verdie.
+Les femelles présentent des taches jaunes dans la large bordure foncée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_meadii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_meadii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est d'une couleur vert jaunâtre, ornée de petits points noirs et d'une ligne latérale jaune pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_meadii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_meadii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias meadii vole sur une courte période en plein été, en juillet août, en une seule génération.
+La chenille hiberne au troisième stade, selon certaines sources (ou dans des lieux plus froids) elle hibernerait deux fois car deux années seraient nécessaire pour accomplir son cycle,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_meadii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_meadii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille Tripholium dasyphyllum, Tripholium nanum, Tripholium parryi, Astragalus alpinus, Astragalus miser, Oxytropis deflexa, Vicia americana,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_meadii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_meadii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias meadii est présent dans le nord-ouest de l'Amérique du Nord, au Canada dans l'Alberta et la Colombie-Britannique et aux États-Unis dans les Montagnes Rocheuses le Montana, l'Idaho, le Wyoming, l'Utah, le Colorado et le Nouveau-Mexique[1].
-Biotope
-Colias meadii réside dans les prairies alpines des montagnes et dans la toundra[3].
-Protection
-Pas de statut de protection particulier[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias meadii est présent dans le nord-ouest de l'Amérique du Nord, au Canada dans l'Alberta et la Colombie-Britannique et aux États-Unis dans les Montagnes Rocheuses le Montana, l'Idaho, le Wyoming, l'Utah, le Colorado et le Nouveau-Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_meadii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_meadii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias meadii réside dans les prairies alpines des montagnes et dans la toundra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colias_meadii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_meadii</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
